--- a/H1299_143B_prot-nucl-quant/AA_influx_143B-GOT-DKO/annotations.xlsx
+++ b/H1299_143B_prot-nucl-quant/AA_influx_143B-GOT-DKO/annotations.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/H1299_143B_prot-nucl-quant/AA_influx_143B-GOT-DKO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D14801B-77DA-D647-95CA-5FBAE1797A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAF2A5B-F0C1-4B43-B632-DDDFF51D933A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="19840" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="annotations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Sample_name</t>
   </si>
@@ -77,12 +88,21 @@
   </si>
   <si>
     <t>AF14</t>
+  </si>
+  <si>
+    <t>Prlfr</t>
+  </si>
+  <si>
+    <t>vol_accum</t>
+  </si>
+  <si>
+    <t>Media_vol_t0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -560,9 +580,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -917,14 +936,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -938,10 +962,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -955,10 +988,19 @@
         <v>2990</v>
       </c>
       <c r="E2">
+        <v>2990</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>1.154248202</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -972,112 +1014,175 @@
         <v>2990</v>
       </c>
       <c r="E3">
+        <v>2990</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>1.154248202</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
         <v>0.1</v>
       </c>
-      <c r="C4" s="1">
-        <v>9.1299999999999997E-5</v>
+      <c r="C4">
+        <v>3.9669073271364679E-5</v>
       </c>
       <c r="D4">
-        <v>2848.0645159999999</v>
+        <v>2882.0430107526881</v>
       </c>
       <c r="E4">
+        <v>3031.6666666666665</v>
+      </c>
+      <c r="F4">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>1.154248202</v>
+      </c>
+      <c r="H4">
+        <v>1.3224080394744016E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
         <v>0.1</v>
       </c>
-      <c r="C5" s="1">
-        <v>8.0500000000000005E-5</v>
+      <c r="C5">
+        <v>3.4939232104982537E-5</v>
       </c>
       <c r="D5">
-        <v>2825.8064519999998</v>
+        <v>2852.0430107526881</v>
       </c>
       <c r="E5">
+        <v>3001.6666666666665</v>
+      </c>
+      <c r="F5">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>1.154248202</v>
+      </c>
+      <c r="H5">
+        <v>1.1647340766602571E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <v>0.1</v>
       </c>
-      <c r="C6" s="1">
-        <v>7.8100000000000001E-5</v>
+      <c r="C6">
+        <v>3.3904942513316673E-5</v>
       </c>
       <c r="D6">
-        <v>2803.5483869999998</v>
+        <v>2822.0430107526881</v>
       </c>
       <c r="E6">
+        <v>2971.6666666666665</v>
+      </c>
+      <c r="F6">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>1.154248202</v>
+      </c>
+      <c r="H6">
+        <v>1.1302550037107271E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <v>0.1</v>
       </c>
-      <c r="C7" s="1">
-        <v>8.4900000000000004E-5</v>
+      <c r="C7">
+        <v>3.6850924664859351E-5</v>
       </c>
       <c r="D7">
-        <v>2803.5483869999998</v>
+        <v>2822.0430107526881</v>
       </c>
       <c r="E7">
+        <v>2971.6666666666665</v>
+      </c>
+      <c r="F7">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>1.154248202</v>
+      </c>
+      <c r="H7">
+        <v>1.2284622508197825E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
         <v>0.1</v>
       </c>
-      <c r="C8" s="1">
-        <v>8.4499999999999994E-5</v>
+      <c r="C8">
+        <v>3.6711469888454957E-5</v>
       </c>
       <c r="D8">
-        <v>2810.9677419999998</v>
+        <v>2832.0430107526881</v>
       </c>
       <c r="E8">
+        <v>2981.6666666666665</v>
+      </c>
+      <c r="F8">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>1.154248202</v>
+      </c>
+      <c r="H8">
+        <v>1.2238133870513063E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
         <v>0.1</v>
       </c>
-      <c r="C9" s="1">
-        <v>7.2700000000000005E-5</v>
+      <c r="C9">
+        <v>3.1551643161492627E-5</v>
       </c>
       <c r="D9">
-        <v>2810.9677419999998</v>
+        <v>2832.0430107526881</v>
       </c>
       <c r="E9">
+        <v>2981.6666666666665</v>
+      </c>
+      <c r="F9">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>1.154248202</v>
+      </c>
+      <c r="H9">
+        <v>1.0518054276176945E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1085,16 +1190,25 @@
         <v>0.1</v>
       </c>
       <c r="C10">
-        <v>1.4347700000000001E-4</v>
+        <v>6.2311219464059115E-5</v>
       </c>
       <c r="D10">
         <v>2830</v>
       </c>
       <c r="E10">
+        <v>3031.6666666666665</v>
+      </c>
+      <c r="F10">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>1.154248202</v>
+      </c>
+      <c r="H10">
+        <v>2.0772065181670081E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1102,16 +1216,25 @@
         <v>0.1</v>
       </c>
       <c r="C11">
-        <v>1.2637E-4</v>
+        <v>5.4881699522101572E-5</v>
       </c>
       <c r="D11">
         <v>2800</v>
       </c>
       <c r="E11">
+        <v>3001.6666666666665</v>
+      </c>
+      <c r="F11">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>1.154248202</v>
+      </c>
+      <c r="H11">
+        <v>1.8295360764227658E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1119,16 +1242,25 @@
         <v>0.1</v>
       </c>
       <c r="C12">
-        <v>1.2262899999999999E-4</v>
+        <v>5.3257062483196848E-5</v>
       </c>
       <c r="D12">
         <v>2770</v>
       </c>
       <c r="E12">
+        <v>2971.6666666666665</v>
+      </c>
+      <c r="F12">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>1.154248202</v>
+      </c>
+      <c r="H12">
+        <v>1.7753771837563343E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1136,16 +1268,25 @@
         <v>0.1</v>
       </c>
       <c r="C13">
-        <v>1.3328400000000001E-4</v>
+        <v>5.7884539891762546E-5</v>
       </c>
       <c r="D13">
         <v>2770</v>
       </c>
       <c r="E13">
+        <v>2971.6666666666665</v>
+      </c>
+      <c r="F13">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>1.154248202</v>
+      </c>
+      <c r="H13">
+        <v>1.9296387488230798E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1153,16 +1294,25 @@
         <v>0.1</v>
       </c>
       <c r="C14">
-        <v>1.3278000000000001E-4</v>
+        <v>5.7665487706741675E-5</v>
       </c>
       <c r="D14">
         <v>2780</v>
       </c>
       <c r="E14">
+        <v>2981.6666666666665</v>
+      </c>
+      <c r="F14">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>1.154248202</v>
+      </c>
+      <c r="H14">
+        <v>1.9223364262163703E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1170,13 +1320,22 @@
         <v>0.1</v>
       </c>
       <c r="C15">
-        <v>1.1411700000000001E-4</v>
+        <v>4.9560556860969811E-5</v>
       </c>
       <c r="D15">
         <v>2780</v>
       </c>
       <c r="E15">
+        <v>2981.6666666666665</v>
+      </c>
+      <c r="F15">
         <v>31</v>
+      </c>
+      <c r="G15">
+        <v>1.154248202</v>
+      </c>
+      <c r="H15">
+        <v>1.6521504897681053E-6</v>
       </c>
     </row>
   </sheetData>
